--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H2">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I2">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J2">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N2">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q2">
-        <v>2.447045619791666</v>
+        <v>5.681028473738331</v>
       </c>
       <c r="R2">
-        <v>22.023410578125</v>
+        <v>51.12925626364498</v>
       </c>
       <c r="S2">
-        <v>0.004465880552200121</v>
+        <v>0.01497359848690639</v>
       </c>
       <c r="T2">
-        <v>0.004465880552200122</v>
+        <v>0.01497359848690639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H3">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I3">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J3">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.79327</v>
       </c>
       <c r="O3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q3">
-        <v>223.73125326875</v>
+        <v>174.05966609465</v>
       </c>
       <c r="R3">
-        <v>2013.58127941875</v>
+        <v>1566.53699485185</v>
       </c>
       <c r="S3">
-        <v>0.4083115757267065</v>
+        <v>0.4587724854600559</v>
       </c>
       <c r="T3">
-        <v>0.4083115757267065</v>
+        <v>0.4587724854600559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H4">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I4">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J4">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N4">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q4">
-        <v>10.01008166270833</v>
+        <v>0.8858486474133332</v>
       </c>
       <c r="R4">
-        <v>90.09073496437499</v>
+        <v>7.972637826719999</v>
       </c>
       <c r="S4">
-        <v>0.01826849024058249</v>
+        <v>0.002334848703514404</v>
       </c>
       <c r="T4">
-        <v>0.0182684902405825</v>
+        <v>0.002334848703514405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>0.143341</v>
       </c>
       <c r="I5">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J5">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N5">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q5">
-        <v>0.003622147436111111</v>
+        <v>0.01080885107988889</v>
       </c>
       <c r="R5">
-        <v>0.032599326925</v>
+        <v>0.09727965971899999</v>
       </c>
       <c r="S5">
-        <v>6.61045207383887E-06</v>
+        <v>2.848910138774908E-05</v>
       </c>
       <c r="T5">
-        <v>6.61045207383887E-06</v>
+        <v>2.848910138774908E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.143341</v>
       </c>
       <c r="I6">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J6">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>20.79327</v>
       </c>
       <c r="O6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q6">
         <v>0.3311697905633333</v>
@@ -827,10 +827,10 @@
         <v>2.98052811507</v>
       </c>
       <c r="S6">
-        <v>0.0006043878852078337</v>
+        <v>0.0008728707306804174</v>
       </c>
       <c r="T6">
-        <v>0.0006043878852078336</v>
+        <v>0.0008728707306804174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>0.143341</v>
       </c>
       <c r="I7">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J7">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N7">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q7">
-        <v>0.01481704768255556</v>
+        <v>0.001685435331555556</v>
       </c>
       <c r="R7">
-        <v>0.133353429143</v>
+        <v>0.015168917984</v>
       </c>
       <c r="S7">
-        <v>2.704124702512916E-05</v>
+        <v>4.442335053770979E-06</v>
       </c>
       <c r="T7">
-        <v>2.704124702512916E-05</v>
+        <v>4.44233505377098E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H8">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I8">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J8">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N8">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q8">
-        <v>0.1104505937638889</v>
+        <v>0.4508842239381111</v>
       </c>
       <c r="R8">
-        <v>0.9940553438749999</v>
+        <v>4.057958015443</v>
       </c>
       <c r="S8">
-        <v>0.0002015733399817458</v>
+        <v>0.001188404417358432</v>
       </c>
       <c r="T8">
-        <v>0.0002015733399817458</v>
+        <v>0.001188404417358432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H9">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I9">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J9">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>20.79327</v>
       </c>
       <c r="O9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q9">
-        <v>10.09840174911667</v>
+        <v>13.81453337697667</v>
       </c>
       <c r="R9">
-        <v>90.88561574205001</v>
+        <v>124.33080039279</v>
       </c>
       <c r="S9">
-        <v>0.01842967520299983</v>
+        <v>0.03641123733616818</v>
       </c>
       <c r="T9">
-        <v>0.01842967520299983</v>
+        <v>0.03641123733616818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H10">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I10">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J10">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N10">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q10">
-        <v>0.4518180839494445</v>
+        <v>0.07030684351644445</v>
       </c>
       <c r="R10">
-        <v>4.066362755545</v>
+        <v>0.6327615916480001</v>
       </c>
       <c r="S10">
-        <v>0.0008245721199157425</v>
+        <v>0.0001853091303033463</v>
       </c>
       <c r="T10">
-        <v>0.0008245721199157425</v>
+        <v>0.0001853091303033463</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H11">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I11">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J11">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N11">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q11">
-        <v>0.03105308961944444</v>
+        <v>0.03344816125433333</v>
       </c>
       <c r="R11">
-        <v>0.279477806575</v>
+        <v>0.301033451289</v>
       </c>
       <c r="S11">
-        <v>5.667217149348084E-05</v>
+        <v>8.815997650124702E-05</v>
       </c>
       <c r="T11">
-        <v>5.667217149348084E-05</v>
+        <v>8.815997650124702E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H12">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I12">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J12">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1187,22 @@
         <v>20.79327</v>
       </c>
       <c r="O12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q12">
-        <v>2.839156982703334</v>
+        <v>1.02481017413</v>
       </c>
       <c r="R12">
-        <v>25.55241284433</v>
+        <v>9.223291567170001</v>
       </c>
       <c r="S12">
-        <v>0.005181487362208423</v>
+        <v>0.002701112332679718</v>
       </c>
       <c r="T12">
-        <v>0.005181487362208422</v>
+        <v>0.002701112332679718</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H13">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I13">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J13">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N13">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O13">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P13">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q13">
-        <v>0.1270282664352222</v>
+        <v>0.005215606389333334</v>
       </c>
       <c r="R13">
-        <v>1.143254397917</v>
+        <v>0.04694045750400001</v>
       </c>
       <c r="S13">
-        <v>0.0002318277436532025</v>
+        <v>1.374687634477398E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002318277436532025</v>
+        <v>1.374687634477399E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H14">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I14">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J14">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N14">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O14">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P14">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q14">
-        <v>2.938311946838889</v>
+        <v>5.154839191468444</v>
       </c>
       <c r="R14">
-        <v>26.44480752155</v>
+        <v>46.393552723216</v>
       </c>
       <c r="S14">
-        <v>0.005362446075199141</v>
+        <v>0.01358671104614725</v>
       </c>
       <c r="T14">
-        <v>0.005362446075199142</v>
+        <v>0.01358671104614725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H15">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I15">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J15">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.79327</v>
       </c>
       <c r="O15">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P15">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q15">
-        <v>268.6473063860467</v>
+        <v>157.9378791333867</v>
       </c>
       <c r="R15">
-        <v>2417.82575747442</v>
+        <v>1421.44091220048</v>
       </c>
       <c r="S15">
-        <v>0.4902837819151635</v>
+        <v>0.4162799744710116</v>
       </c>
       <c r="T15">
-        <v>0.4902837819151635</v>
+        <v>0.4162799744710117</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H16">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I16">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J16">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N16">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O16">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P16">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q16">
-        <v>12.01969521960645</v>
+        <v>0.8037994082417779</v>
       </c>
       <c r="R16">
-        <v>108.177256976458</v>
+        <v>7.234194674176</v>
       </c>
       <c r="S16">
-        <v>0.02193605329237107</v>
+        <v>0.00211858991002475</v>
       </c>
       <c r="T16">
-        <v>0.02193605329237107</v>
+        <v>0.002118589910024751</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H17">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I17">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J17">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N17">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O17">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P17">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q17">
-        <v>0.1465114555361111</v>
+        <v>0.6018959559165554</v>
       </c>
       <c r="R17">
-        <v>1.318603099825</v>
+        <v>5.417063603248999</v>
       </c>
       <c r="S17">
-        <v>0.0002673847412820022</v>
+        <v>0.001586429009544572</v>
       </c>
       <c r="T17">
-        <v>0.0002673847412820022</v>
+        <v>0.001586429009544572</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H18">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I18">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J18">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>20.79327</v>
       </c>
       <c r="O18">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P18">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q18">
-        <v>13.39541498540333</v>
+        <v>18.44134554066333</v>
       </c>
       <c r="R18">
-        <v>120.55873486863</v>
+        <v>165.97210986597</v>
       </c>
       <c r="S18">
-        <v>0.02444675439972219</v>
+        <v>0.04860621715956447</v>
       </c>
       <c r="T18">
-        <v>0.02444675439972219</v>
+        <v>0.04860621715956447</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H19">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I19">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J19">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N19">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O19">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P19">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q19">
-        <v>0.5993315459985555</v>
+        <v>0.09385425911822223</v>
       </c>
       <c r="R19">
-        <v>5.393983913986999</v>
+        <v>0.844688332064</v>
       </c>
       <c r="S19">
-        <v>0.00109378553221368</v>
+        <v>0.0002473735167529566</v>
       </c>
       <c r="T19">
-        <v>0.00109378553221368</v>
+        <v>0.0002473735167529566</v>
       </c>
     </row>
   </sheetData>
